--- a/data/georgia_census/adjara/qobuleti/average_wages.xlsx
+++ b/data/georgia_census/adjara/qobuleti/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BE3ECC-4453-47BC-94EB-6E5B0C54DB6F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D31E47EE-C9DA-4E99-805B-7934C1091C79}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627FF824-D0FD-4F46-B194-43DBE4A1053B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105604D0-0D83-4EB4-8FDB-7E8BCCDE9A6E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C5D717-46EE-4A8C-8B6A-EA0F959ED15E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A36BE24-D9DB-4184-B9B4-3FB22B2D0705}"/>
 </file>